--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lquesada\Documents\UiPath\Auxis-ReFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://auxis-my.sharepoint.com/personal/jramirez_auxis_com/Documents/Documentos/Auxis - Training 1/RPA Challenges/InputForm_Challenge/InputForms_Training/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56835FE-6D32-48E4-B79D-40B0DA5D015D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D56835FE-6D32-48E4-B79D-40B0DA5D015D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30E11E82-3D42-4F09-A183-0F731EEF3142}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="1725" windowWidth="21975" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="3105" windowWidth="22740" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Days of retention for the result files.</t>
   </si>
   <si>
-    <t>ProcessNameFromConfigFile</t>
-  </si>
-  <si>
     <t>TransactionSuccess</t>
   </si>
   <si>
@@ -203,6 +200,12 @@
   </si>
   <si>
     <t>Array of columns with sensitive information that must be removed before sending results. Separate with a ",".</t>
+  </si>
+  <si>
+    <t>InputForms_Challenge</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -262,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -276,6 +279,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,7 +331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -620,11 +629,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
@@ -696,7 +705,7 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="5"/>
@@ -728,7 +737,7 @@
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -739,8 +748,8 @@
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
+      <c r="B5" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
@@ -748,25 +757,32 @@
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1">
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -774,18 +790,18 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -794,80 +810,90 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B20" s="8"/>
+    </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1862,7 +1888,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
@@ -2974,7 +3000,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
